--- a/app/data/Glossário.xlsx
+++ b/app/data/Glossário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dados\Dash\taxa-natalidade-bairros-main\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE64F48B-A6E9-4F47-B652-3A89A9CD5D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E725D5-194D-4CF9-8F04-A28974759A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,7 +336,9 @@
 CAEE: Centro de Atendimento Educacional Especializado
 CEI: Centro de educação infantil
 EMTI: Escola de Ensino Médio em Tempo Integral
-CRP: Conselho Regional de Psicologia</t>
+EMTP: Escola de Ensino Médio em Tempo Parcial
+CRP: Creche parceira
+ANE: Escola anexa</t>
   </si>
 </sst>
 </file>
@@ -620,8 +622,8 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -640,288 +642,291 @@
     </row>
     <row r="2" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="178.5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="140.25" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="140.25" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
+    <sortCondition ref="A2:A36"/>
+  </sortState>
   <conditionalFormatting sqref="C11:F17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
